--- a/bot/files/программа30.xlsx
+++ b/bot/files/программа30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="8" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Добро бро" sheetId="1" r:id="rId1"/>
@@ -414,11 +414,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Алира Пэлас 
-Большой конференц-зал цокольный этаж
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Установочная проектная сессия «Старт внутреннего Акселератора проектов»
 Носов Игорь Олегович, президент сообщества спикеров «Прометей»(г. Москва), Никитинский Максим Викторович, руководитель проектов: Деловая Афиша, Центр сообществ, Сообщество спикеров, Программный директориум (г. Москва
 </t>
@@ -568,6 +563,11 @@
   </si>
   <si>
     <t>Площадка: Мой бизнес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Озеро Ая
+(Красноярские столбы)
+</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1333,7 +1333,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -1404,7 +1404,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="259.2">
@@ -1412,10 +1412,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26.4">
@@ -1438,10 +1438,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -1598,7 +1598,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8">
@@ -1637,7 +1637,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -1708,7 +1708,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="172.8">
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26.4">
@@ -1745,10 +1745,10 @@
         <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="172.8">
@@ -1756,10 +1756,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="187.2">
@@ -1954,7 +1954,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -2025,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="172.8">
@@ -2033,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>40</v>
@@ -2062,10 +2062,10 @@
         <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="129.6">
@@ -2073,10 +2073,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="187.2">
@@ -2893,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3527,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3540,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -3622,7 +3622,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26.4">
@@ -3648,10 +3648,10 @@
         <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="57.6">
@@ -3659,10 +3659,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72">
@@ -3857,7 +3857,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -3936,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>46</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="10" spans="1:3" ht="26.4">
       <c r="A10" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>65</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -4161,7 +4161,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -4240,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>54</v>
@@ -4269,10 +4269,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="374.4">
@@ -4280,7 +4280,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>54</v>
@@ -4439,7 +4439,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8">
@@ -4478,7 +4478,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
@@ -4549,7 +4549,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="374.4">
@@ -4557,10 +4557,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26.4">
@@ -4583,24 +4583,24 @@
     </row>
     <row r="12" spans="1:3" ht="273.60000000000002">
       <c r="A12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="172.8">
       <c r="A13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="187.2">
@@ -4756,7 +4756,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8">

--- a/bot/files/программа30.xlsx
+++ b/bot/files/программа30.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="228" yWindow="564" windowWidth="15996" windowHeight="7620" firstSheet="1" activeTab="6"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Добро бро" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="СО-общество" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="МедиаДвиж" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Дружба народов" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="ГМП-драйв" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Я рулю" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Я профи" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="СОздавай" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Агропрорыв" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="СтудТуризм" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="EVENT" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Мой бизнес" sheetId="12" r:id="rId15"/>
+    <sheet name="Добро бро" sheetId="1" r:id="rId1"/>
+    <sheet name="СО-общество" sheetId="2" r:id="rId2"/>
+    <sheet name="МедиаДвиж" sheetId="3" r:id="rId3"/>
+    <sheet name="Дружба народов" sheetId="4" r:id="rId4"/>
+    <sheet name="ГМП-драйв" sheetId="5" r:id="rId5"/>
+    <sheet name="Я рулю" sheetId="6" r:id="rId6"/>
+    <sheet name="Я профи" sheetId="7" r:id="rId7"/>
+    <sheet name="СОздавай" sheetId="8" r:id="rId8"/>
+    <sheet name="Агропрорыв" sheetId="9" r:id="rId9"/>
+    <sheet name="СтудТуризм" sheetId="10" r:id="rId10"/>
+    <sheet name="EVENT" sheetId="11" r:id="rId11"/>
+    <sheet name="Мой бизнес" sheetId="12" r:id="rId12"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="115">
   <si>
     <t>Площадка: Добро, бро</t>
   </si>
@@ -435,29 +438,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Comfortaa"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -467,7 +473,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -476,28 +482,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -507,6 +525,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -521,6 +540,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -532,6 +552,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -540,6 +562,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -548,107 +573,103 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -838,319 +859,335 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.57"/>
-    <col customWidth="1" min="2" max="2" width="67.29"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2120,316 +2157,327 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="2" width="97.14"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="12" style="10" customWidth="1"/>
+    <col min="2" max="2" width="97.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="10" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3399,328 +3447,339 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" activeCellId="3" sqref="A24 A25 A26 A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.57"/>
-    <col customWidth="1" min="2" max="2" width="105.43"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="105.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="10" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4690,328 +4749,339 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" activeCellId="3" sqref="A24 A25 A26 A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
-    <col customWidth="1" min="2" max="2" width="120.71"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="12.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="120.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="10" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -5981,328 +6051,338 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="2" width="65.71"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -7272,328 +7352,339 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
-    <col customWidth="1" min="2" max="2" width="65.71"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="12.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="10" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -8563,328 +8654,339 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
-    <col customWidth="1" min="2" max="2" width="65.71"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="12.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="10" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -9854,328 +9956,336 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.29"/>
-    <col customWidth="1" min="2" max="2" width="65.71"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="10" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -11145,328 +11255,339 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" activeCellId="3" sqref="A24 A25 A26 A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.29"/>
-    <col customWidth="1" min="2" max="2" width="65.71"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="18.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="10" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -12436,316 +12557,327 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.14"/>
-    <col customWidth="1" min="2" max="2" width="19.57"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="18.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="10" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -13715,328 +13847,339 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.29"/>
-    <col customWidth="1" min="2" max="2" width="41.14"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="16" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="16" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -15006,328 +15149,339 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.86"/>
-    <col customWidth="1" min="2" max="2" width="98.86"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="11.88671875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="98.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="10" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>0.020833333333333332</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -16297,14 +16451,10 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>